--- a/doors-detector/results/house10.xlsx
+++ b/doors-detector/results/house10.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7871014034954568</v>
+        <v>0.7953951982341622</v>
       </c>
       <c r="F2" t="n">
         <v>3080</v>
       </c>
       <c r="G2" t="n">
-        <v>2570</v>
+        <v>2583</v>
       </c>
       <c r="H2" t="n">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2a</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.2803120615950622</v>
+        <v>0.2734070176802708</v>
       </c>
       <c r="F3" t="n">
         <v>81</v>
       </c>
       <c r="G3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -550,7 +550,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2b</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.646078742912309</v>
+        <v>0.599776574759282</v>
       </c>
       <c r="F4" t="n">
         <v>98</v>
       </c>
       <c r="G4" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" t="n">
-        <v>206</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5">
@@ -582,7 +582,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2c</t>
+          <t>2a</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.8347040648609657</v>
+        <v>0.8436826923107339</v>
       </c>
       <c r="F5" t="n">
         <v>3080</v>
       </c>
       <c r="G5" t="n">
-        <v>2672</v>
+        <v>2690</v>
       </c>
       <c r="H5" t="n">
-        <v>408</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6">
@@ -614,7 +614,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2a</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.6674322189044145</v>
+        <v>0.6635837392399937</v>
       </c>
       <c r="F6" t="n">
         <v>81</v>
       </c>
       <c r="G6" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H6" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.8063176994107306</v>
+        <v>0.7920800399837584</v>
       </c>
       <c r="F7" t="n">
         <v>98</v>
@@ -664,7 +664,7 @@
         <v>88</v>
       </c>
       <c r="H7" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.8455257992785039</v>
+        <v>0.8584545348365791</v>
       </c>
       <c r="F8" t="n">
         <v>3080</v>
       </c>
       <c r="G8" t="n">
-        <v>2696</v>
+        <v>2726</v>
       </c>
       <c r="H8" t="n">
-        <v>384</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9">
@@ -710,7 +710,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2c</t>
+          <t>2b</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.8311574369756756</v>
+        <v>0.7769709386084205</v>
       </c>
       <c r="F9" t="n">
         <v>81</v>
       </c>
       <c r="G9" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H9" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
@@ -742,25 +742,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>2b</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E10" t="n">
-        <v>0.7806486912159948</v>
+        <v>0.7749927813056096</v>
       </c>
       <c r="F10" t="n">
         <v>98</v>
       </c>
       <c r="G10" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H10" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -774,7 +774,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2a</t>
+          <t>2c</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.8722558579031562</v>
+        <v>0.8880349181484422</v>
       </c>
       <c r="F11" t="n">
         <v>3080</v>
       </c>
       <c r="G11" t="n">
-        <v>2749</v>
+        <v>2784</v>
       </c>
       <c r="H11" t="n">
-        <v>331</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2b</t>
+          <t>2c</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.7704302559702095</v>
+        <v>0.7594425637472226</v>
       </c>
       <c r="F12" t="n">
         <v>81</v>
       </c>
       <c r="G12" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.8279528295234496</v>
+        <v>0.8071043293916532</v>
       </c>
       <c r="F13" t="n">
         <v>98</v>
@@ -856,7 +856,7 @@
         <v>91</v>
       </c>
       <c r="H13" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
